--- a/results/results-physics.xlsx
+++ b/results/results-physics.xlsx
@@ -11,22 +11,23 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_cats" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data_cat_counts" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="method_cats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="goal_cats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="region_level" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="region_level_full" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="target_cats" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats_evaluable" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats_evaluated" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_subcats" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_metrics" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_metric_counts" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uncertainty_cats" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uncertainty_subcats" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limitation_cats" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limitation_cat_counts" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="journals" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="journal_subjects" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="forecasting_window" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scenarios-interventions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="region_level" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="region_level_full" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="target_cats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats_evaluable" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_cats_evaluated" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_subcats" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_metrics" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eval_metric_counts" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uncertainty_cats" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uncertainty_subcats" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limitation_cats" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limitation_cat_counts" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="journals" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="journal_subjects" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -529,6 +530,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>occurances</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>metric-based</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5666666666666667</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>not evaluable</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -611,7 +687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -686,7 +762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -787,7 +863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -873,7 +949,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sMAPE</t>
+          <t>BIC</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -886,7 +962,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>precision</t>
+          <t>nRMSE</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -899,7 +975,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EV</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -912,7 +988,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BIC</t>
+          <t>RMSPE</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -925,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RMdSPE</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -938,7 +1014,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MSE</t>
+          <t>RMSLE</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -951,7 +1027,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RMSLE</t>
+          <t>EV</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -964,7 +1040,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>AIC</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -977,7 +1053,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PI coverage rate</t>
+          <t>precision</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -990,7 +1066,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>CRPS</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1003,7 +1079,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CRPS</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1016,7 +1092,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RMSPE</t>
+          <t>PI coverage rate</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1029,7 +1105,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>nRMSE</t>
+          <t>sMAPE</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1042,7 +1118,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AIC</t>
+          <t>RMdSPE</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1057,7 +1133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1159,7 +1235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1221,7 +1297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +1357,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>exceedance probabilities (prob that true value will exceed a given value)</t>
+          <t>70% CIs</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1294,7 +1370,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>some kind of PIs shown on plots but not specified what it is</t>
+          <t>exceedance probabilities (prob that true value will exceed a given value)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1307,7 +1383,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>70% CIs</t>
+          <t>some kind of PIs shown on plots but not specified what it is</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1320,7 +1396,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>50% CIs</t>
+          <t>90% CIs</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1333,7 +1409,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>some kind of PIs</t>
+          <t>50% CIs</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1346,7 +1422,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>90% CIs</t>
+          <t>some kind of PIs</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1361,7 +1437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1475,7 +1551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1559,133 +1635,6 @@
       </c>
       <c r="C6" t="n">
         <v>0.06666666666666667</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>occurances</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Chaos, Solitons &amp; Fractals</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>22</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nature Communications</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Results in Physics</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Computer Methods in Applied Mechanics and Engineering</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Proceedings of the Royal Society A: Mathematical, Physical and Engineering Sciences</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Physica A: Statistical Mechanics and its Applications</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Physical Review X</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1741,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>policy</t>
+          <t>demographics</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1805,7 +1754,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>demographics</t>
+          <t>policy</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1818,7 +1767,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>climate</t>
+          <t>hospitalizations</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1831,7 +1780,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hospitalizations</t>
+          <t>climate</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1847,6 +1796,133 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>occurances</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Chaos, Solitons &amp; Fractals</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Nature Communications</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Results in Physics</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Proceedings of the Royal Society A: Mathematical, Physical and Engineering Sciences</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Computer Methods in Applied Mechanics and Engineering</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Physical Review X</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Physica A: Statistical Mechanics and its Applications</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1906,7 +1982,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Statistical and Nonlinear Physics</t>
+          <t>Applied Mathematics</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1919,7 +1995,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Applied Mathematics</t>
+          <t>Statistical and Nonlinear Physics</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1958,7 +2034,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>General Engineering</t>
+          <t>Statistics and Probability</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1997,7 +2073,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mechanics of Materials</t>
+          <t>Mechanical Engineering</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2010,7 +2086,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Statistics and Probability</t>
+          <t>General Engineering</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2023,7 +2099,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Condensed Matter Physics</t>
+          <t>Mechanics of Materials</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2036,7 +2112,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mechanical Engineering</t>
+          <t>Condensed Matter Physics</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2256,7 +2332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2307,38 +2383,83 @@
         <v>0.4333333333333333</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Scenarios</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Interventions</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>occurances</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Scenarios</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interventions</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2385,7 +2506,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>county or smaller</t>
+          <t>state</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2398,7 +2519,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>county or smaller</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2426,7 +2547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2527,7 +2648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2613,7 +2734,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>end dates of pandemic</t>
+          <t>ventilators</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2626,7 +2747,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>peak deaths</t>
+          <t>ICU admissions</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2639,7 +2760,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>critical care beds</t>
+          <t>total deaths</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2652,7 +2773,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>attack rate</t>
+          <t>curves of probabilities that cases/deaths/recoveries will exceed certain values</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2665,7 +2786,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hospitalizations</t>
+          <t>symptomatic cases</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2678,7 +2799,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>total deaths</t>
+          <t>attack rate</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2691,7 +2812,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ventilators</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2704,7 +2825,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>symptomatic cases</t>
+          <t>end dates of pandemic</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2717,7 +2838,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>curves of probabilities that cases/deaths/recoveries will exceed certain values</t>
+          <t>peak cases date</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2730,7 +2851,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>peak cases date</t>
+          <t>duration of outbreak</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2743,7 +2864,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>peak deaths</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2756,7 +2877,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>duration of outbreak</t>
+          <t>hospitalizations</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2769,7 +2890,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ICU admissions</t>
+          <t>critical care beds</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2777,81 +2898,6 @@
       </c>
       <c r="C18" t="n">
         <v>0.03333333333333333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>occurances</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>metric-based</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>17</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5666666666666667</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>not evaluable</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>
